--- a/Code/Results/Cases/Case_6_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_2/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.642002945599245</v>
+        <v>2.642002945599359</v>
       </c>
       <c r="C2">
-        <v>0.3953963257252155</v>
+        <v>0.3953963257254998</v>
       </c>
       <c r="D2">
-        <v>0.1610027406357659</v>
+        <v>0.1610027406357517</v>
       </c>
       <c r="E2">
-        <v>0.02168518733023905</v>
+        <v>0.02168518733024349</v>
       </c>
       <c r="F2">
-        <v>7.428701148049868</v>
+        <v>7.428701148049839</v>
       </c>
       <c r="G2">
-        <v>0.0008634352502634202</v>
+        <v>0.0008634352501659362</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1204192478579422</v>
+        <v>0.1204192478577646</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.09201206591632172</v>
+        <v>0.09201206591621514</v>
       </c>
       <c r="M2">
         <v>0.3992521550489982</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.344451557896548</v>
+        <v>2.344451557896889</v>
       </c>
       <c r="C3">
-        <v>0.3378322454806266</v>
+        <v>0.3378322454807972</v>
       </c>
       <c r="D3">
-        <v>0.1405749848143216</v>
+        <v>0.1405749848142079</v>
       </c>
       <c r="E3">
-        <v>0.02058848102580058</v>
+        <v>0.02058848102578636</v>
       </c>
       <c r="F3">
-        <v>6.777027380078891</v>
+        <v>6.777027380078835</v>
       </c>
       <c r="G3">
-        <v>0.0008749829601199088</v>
+        <v>0.0008749829601937033</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1159450659323724</v>
+        <v>0.1159450659322978</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08770724203536417</v>
+        <v>0.08770724203520786</v>
       </c>
       <c r="M3">
-        <v>0.3583011582530418</v>
+        <v>0.358301158253056</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.168358095765711</v>
+        <v>2.168358095765598</v>
       </c>
       <c r="C4">
-        <v>0.303484192963424</v>
+        <v>0.3034841929633387</v>
       </c>
       <c r="D4">
-        <v>0.1282925410102678</v>
+        <v>0.128292541010282</v>
       </c>
       <c r="E4">
-        <v>0.01992574043478612</v>
+        <v>0.01992574043483319</v>
       </c>
       <c r="F4">
-        <v>6.38736346511817</v>
+        <v>6.387363465118199</v>
       </c>
       <c r="G4">
-        <v>0.0008822339506493498</v>
+        <v>0.0008822339505527696</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1132545472736766</v>
+        <v>0.1132545472736375</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08530376695997433</v>
+        <v>0.08530376696002406</v>
       </c>
       <c r="M4">
-        <v>0.3341796185332839</v>
+        <v>0.3341796185333052</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.098082937703168</v>
+        <v>2.098082937703282</v>
       </c>
       <c r="C5">
-        <v>0.2897022208490512</v>
+        <v>0.2897022208491933</v>
       </c>
       <c r="D5">
-        <v>0.1233421613450503</v>
+        <v>0.1233421613446666</v>
       </c>
       <c r="E5">
-        <v>0.01965766694922433</v>
+        <v>0.01965766694927229</v>
       </c>
       <c r="F5">
-        <v>6.230866189540905</v>
+        <v>6.230866189540933</v>
       </c>
       <c r="G5">
-        <v>0.0008852322068793023</v>
+        <v>0.0008852322068120586</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1121695110826941</v>
+        <v>0.1121695110826231</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08438067759318812</v>
+        <v>0.08438067759311707</v>
       </c>
       <c r="M5">
-        <v>0.3245816795491763</v>
+        <v>0.3245816795491834</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.08649863792715</v>
+        <v>2.086498637927036</v>
       </c>
       <c r="C6">
-        <v>0.2874257630892316</v>
+        <v>0.2874257630888906</v>
       </c>
       <c r="D6">
-        <v>0.1225231739275898</v>
+        <v>0.1225231739271919</v>
       </c>
       <c r="E6">
-        <v>0.01961325588848695</v>
+        <v>0.01961325588850293</v>
       </c>
       <c r="F6">
         <v>6.205009222740586</v>
       </c>
       <c r="G6">
-        <v>0.0008857327704822748</v>
+        <v>0.0008857327703943374</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1119899499761949</v>
+        <v>0.1119899499763228</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08423069536014083</v>
+        <v>0.08423069536006977</v>
       </c>
       <c r="M6">
-        <v>0.3230012565117235</v>
+        <v>0.3230012565117306</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.167404550244328</v>
+        <v>2.167404550244555</v>
       </c>
       <c r="C7">
-        <v>0.3032974975076286</v>
+        <v>0.3032974975074296</v>
       </c>
       <c r="D7">
-        <v>0.1282255698161379</v>
+        <v>0.1282255698158821</v>
       </c>
       <c r="E7">
-        <v>0.01992211784985631</v>
+        <v>0.01992211784985454</v>
       </c>
       <c r="F7">
         <v>6.385244022914605</v>
       </c>
       <c r="G7">
-        <v>0.0008822742064441229</v>
+        <v>0.0008822742064435349</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1132398716372904</v>
+        <v>0.1132398716374929</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0852910946036971</v>
+        <v>0.08529109460371842</v>
       </c>
       <c r="M7">
-        <v>0.3340492704868012</v>
+        <v>0.3340492704868225</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.537924372733016</v>
+        <v>2.537924372733073</v>
       </c>
       <c r="C8">
-        <v>0.3753188234747427</v>
+        <v>0.3753188234743732</v>
       </c>
       <c r="D8">
-        <v>0.1538984856963737</v>
+        <v>0.1538984856963026</v>
       </c>
       <c r="E8">
         <v>0.02130440171011561</v>
       </c>
       <c r="F8">
-        <v>7.201617452917475</v>
+        <v>7.201617452917532</v>
       </c>
       <c r="G8">
-        <v>0.0008673854715352568</v>
+        <v>0.0008673854715218051</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1188629679832758</v>
+        <v>0.1188629679834499</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09047551093244977</v>
+        <v>0.0904755109324995</v>
       </c>
       <c r="M8">
         <v>0.3849039080003109</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.325992412965888</v>
+        <v>3.325992412965434</v>
       </c>
       <c r="C9">
-        <v>0.5262918606972562</v>
+        <v>0.5262918606976541</v>
       </c>
       <c r="D9">
-        <v>0.2068519988054192</v>
+        <v>0.2068519988054334</v>
       </c>
       <c r="E9">
-        <v>0.02413476369574052</v>
+        <v>0.02413476369567658</v>
       </c>
       <c r="F9">
         <v>8.902846214236746</v>
       </c>
       <c r="G9">
-        <v>0.0008393093415154414</v>
+        <v>0.0008393093415177961</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1304868265914116</v>
+        <v>0.1304868265915005</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1027468014663029</v>
+        <v>0.1027468014662674</v>
       </c>
       <c r="M9">
         <v>0.4940478804599024</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.957190659943649</v>
+        <v>3.957190659943478</v>
       </c>
       <c r="C10">
-        <v>0.6461383745649414</v>
+        <v>0.6461383745639182</v>
       </c>
       <c r="D10">
-        <v>0.2482235951779046</v>
+        <v>0.2482235951780183</v>
       </c>
       <c r="E10">
-        <v>0.02634530481020914</v>
+        <v>0.02634530481015585</v>
       </c>
       <c r="F10">
-        <v>10.24170995456831</v>
+        <v>10.24170995456845</v>
       </c>
       <c r="G10">
-        <v>0.0008191176450707966</v>
+        <v>0.0008191176449315869</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1396298883072866</v>
+        <v>0.1396298883073435</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1133750676650891</v>
+        <v>0.1133750676650322</v>
       </c>
       <c r="M10">
-        <v>0.5820944929434049</v>
+        <v>0.5820944929433125</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.259681587269142</v>
+        <v>4.259681587268972</v>
       </c>
       <c r="C11">
         <v>0.7034182732951706</v>
       </c>
       <c r="D11">
-        <v>0.2678167474789177</v>
+        <v>0.2678167474787045</v>
       </c>
       <c r="E11">
-        <v>0.02739556639174801</v>
+        <v>0.02739556639175511</v>
       </c>
       <c r="F11">
-        <v>10.8776064827324</v>
+        <v>10.87760648273246</v>
       </c>
       <c r="G11">
-        <v>0.000809960112752871</v>
+        <v>0.0008099601127553188</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1439853980906314</v>
+        <v>0.1439853980906705</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1186501392902528</v>
+        <v>0.1186501392905228</v>
       </c>
       <c r="M11">
-        <v>0.6244317388913245</v>
+        <v>0.6244317388913387</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.376841091719371</v>
+        <v>4.376841091719143</v>
       </c>
       <c r="C12">
-        <v>0.725589489185694</v>
+        <v>0.7255894891856087</v>
       </c>
       <c r="D12">
-        <v>0.2753711463241046</v>
+        <v>0.2753711463238773</v>
       </c>
       <c r="E12">
-        <v>0.02780136950024126</v>
+        <v>0.02780136950035583</v>
       </c>
       <c r="F12">
-        <v>11.12301664071725</v>
+        <v>11.12301664071731</v>
       </c>
       <c r="G12">
-        <v>0.0008064897259427178</v>
+        <v>0.0008064897259537058</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1456695651046971</v>
+        <v>0.1456695651046687</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1207200907395958</v>
+        <v>0.1207200907395745</v>
       </c>
       <c r="M12">
-        <v>0.640850624709131</v>
+        <v>0.6408506247091168</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.35148526780614</v>
+        <v>4.351485267806027</v>
       </c>
       <c r="C13">
-        <v>0.7207916508183132</v>
+        <v>0.7207916508174321</v>
       </c>
       <c r="D13">
-        <v>0.2737377489670365</v>
+        <v>0.2737377489666102</v>
       </c>
       <c r="E13">
-        <v>0.02771358255941259</v>
+        <v>0.02771358255942413</v>
       </c>
       <c r="F13">
-        <v>11.06994479769043</v>
+        <v>11.06994479769054</v>
       </c>
       <c r="G13">
-        <v>0.0008072373705188125</v>
+        <v>0.0008072373703982909</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1453051824093912</v>
+        <v>0.1453051824092064</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1202709074198154</v>
+        <v>0.1202709074198793</v>
       </c>
       <c r="M13">
-        <v>0.6372962865798257</v>
+        <v>0.6372962865798328</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.269265430504447</v>
+        <v>4.269265430504504</v>
       </c>
       <c r="C14">
-        <v>0.7052321477370072</v>
+        <v>0.7052321477364387</v>
       </c>
       <c r="D14">
-        <v>0.2684353980958747</v>
+        <v>0.2684353980960026</v>
       </c>
       <c r="E14">
-        <v>0.02742877916436903</v>
+        <v>0.02742877916432374</v>
       </c>
       <c r="F14">
-        <v>10.89769937405384</v>
+        <v>10.89769937405407</v>
       </c>
       <c r="G14">
-        <v>0.000809674696383913</v>
+        <v>0.0008096746963601542</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1441232153696212</v>
+        <v>0.1441232153694685</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1188189266104942</v>
+        <v>0.1188189266104516</v>
       </c>
       <c r="M14">
         <v>0.6257744101566587</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.219256900105506</v>
+        <v>4.219256900105904</v>
       </c>
       <c r="C15">
-        <v>0.6957668271888906</v>
+        <v>0.6957668271893738</v>
       </c>
       <c r="D15">
-        <v>0.2652058975239555</v>
+        <v>0.2652058975239413</v>
       </c>
       <c r="E15">
-        <v>0.02725543769562133</v>
+        <v>0.02725543769555827</v>
       </c>
       <c r="F15">
-        <v>10.79281889217009</v>
+        <v>10.79281889217015</v>
       </c>
       <c r="G15">
-        <v>0.0008111670711834248</v>
+        <v>0.0008111670710613217</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1434039786487524</v>
+        <v>0.1434039786487382</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1179392720660459</v>
+        <v>0.1179392720661596</v>
       </c>
       <c r="M15">
-        <v>0.6187691902280577</v>
+        <v>0.6187691902280363</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.937764163496411</v>
+        <v>3.937764163496638</v>
       </c>
       <c r="C16">
-        <v>0.6424573592793763</v>
+        <v>0.6424573592802858</v>
       </c>
       <c r="D16">
-        <v>0.2469606299492426</v>
+        <v>0.2469606299489584</v>
       </c>
       <c r="E16">
-        <v>0.02627770212003711</v>
+        <v>0.02627770212007974</v>
       </c>
       <c r="F16">
-        <v>10.2007540205029</v>
+        <v>10.20075402050284</v>
       </c>
       <c r="G16">
-        <v>0.0008197161292001607</v>
+        <v>0.0008197161290792113</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1393497335656591</v>
+        <v>0.1393497335656981</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1130399292723396</v>
+        <v>0.1130399292722757</v>
       </c>
       <c r="M16">
-        <v>0.5793783688070562</v>
+        <v>0.5793783688070491</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.769276897449004</v>
+        <v>3.769276897449231</v>
       </c>
       <c r="C17">
-        <v>0.6105157592632224</v>
+        <v>0.6105157592637056</v>
       </c>
       <c r="D17">
-        <v>0.2359813980500576</v>
+        <v>0.2359813980504697</v>
       </c>
       <c r="E17">
-        <v>0.02569042539371313</v>
+        <v>0.02569042539375666</v>
       </c>
       <c r="F17">
-        <v>9.844911390791992</v>
+        <v>9.844911390792078</v>
       </c>
       <c r="G17">
-        <v>0.0008249634401439776</v>
+        <v>0.000824963440138049</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1369172033698831</v>
+        <v>0.1369172033699222</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1101530792314875</v>
+        <v>0.1101530792314307</v>
       </c>
       <c r="M17">
-        <v>0.5558367883053563</v>
+        <v>0.555836788305335</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.67378486863015</v>
+        <v>3.673784868630207</v>
       </c>
       <c r="C18">
-        <v>0.5923978899707265</v>
+        <v>0.5923978899706981</v>
       </c>
       <c r="D18">
-        <v>0.2297375580574936</v>
+        <v>0.229737558057451</v>
       </c>
       <c r="E18">
-        <v>0.02535672788165133</v>
+        <v>0.02535672788181387</v>
       </c>
       <c r="F18">
         <v>9.642714881491258</v>
       </c>
       <c r="G18">
-        <v>0.0008279846240467933</v>
+        <v>0.0008279846239256481</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.135536094616775</v>
+        <v>0.1355360946167181</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.108533446472471</v>
+        <v>0.1085334464726486</v>
       </c>
       <c r="M18">
-        <v>0.5425072911749709</v>
+        <v>0.5425072911749851</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.641685133988915</v>
+        <v>3.641685133989199</v>
       </c>
       <c r="C19">
-        <v>0.5863048253673071</v>
+        <v>0.5863048253668808</v>
       </c>
       <c r="D19">
-        <v>0.2276350572612529</v>
+        <v>0.2276350572610681</v>
       </c>
       <c r="E19">
-        <v>0.02524440006350659</v>
+        <v>0.02524440006358031</v>
       </c>
       <c r="F19">
         <v>9.574658797273884</v>
       </c>
       <c r="G19">
-        <v>0.0008290082563155566</v>
+        <v>0.0008290082562072261</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1350713868071338</v>
+        <v>0.1350713868070841</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1079918233562367</v>
+        <v>0.1079918233560733</v>
       </c>
       <c r="M19">
         <v>0.5380287788017526</v>
@@ -1270,19 +1270,19 @@
         <v>3.787063251257621</v>
       </c>
       <c r="C20">
-        <v>0.6138891418474088</v>
+        <v>0.6138891418478067</v>
       </c>
       <c r="D20">
-        <v>0.2371426357412929</v>
+        <v>0.2371426357414492</v>
       </c>
       <c r="E20">
-        <v>0.02575250777944849</v>
+        <v>0.02575250777941118</v>
       </c>
       <c r="F20">
-        <v>9.882530280799728</v>
+        <v>9.882530280799841</v>
       </c>
       <c r="G20">
-        <v>0.0008244045817359534</v>
+        <v>0.0008244045817171005</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1371742413749359</v>
+        <v>0.1371742413746269</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1104561051068771</v>
+        <v>0.1104561051071329</v>
       </c>
       <c r="M20">
-        <v>0.5583206027221834</v>
+        <v>0.5583206027221976</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.293340895116671</v>
+        <v>4.293340895116955</v>
       </c>
       <c r="C21">
-        <v>0.7097885659682674</v>
+        <v>0.7097885659683243</v>
       </c>
       <c r="D21">
-        <v>0.2699889561701951</v>
+        <v>0.2699889561697972</v>
       </c>
       <c r="E21">
-        <v>0.02751219829481943</v>
+        <v>0.02751219829484786</v>
       </c>
       <c r="F21">
         <v>10.94816029351614</v>
       </c>
       <c r="G21">
-        <v>0.0008089589246374153</v>
+        <v>0.0008089589246481573</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1444693838612494</v>
+        <v>0.144469383861253</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1192433631759542</v>
+        <v>0.119243363176075</v>
       </c>
       <c r="M21">
-        <v>0.6291476542755774</v>
+        <v>0.629147654275549</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.63969510055756</v>
+        <v>4.639695100557674</v>
       </c>
       <c r="C22">
-        <v>0.7753161296716939</v>
+        <v>0.7753161296721203</v>
       </c>
       <c r="D22">
-        <v>0.2922564080663506</v>
+        <v>0.2922564080659953</v>
       </c>
       <c r="E22">
-        <v>0.02871044963345426</v>
+        <v>0.02871044963348179</v>
       </c>
       <c r="F22">
-        <v>11.67192887989518</v>
+        <v>11.67192887989529</v>
       </c>
       <c r="G22">
-        <v>0.0007988450251975355</v>
+        <v>0.0007988450254373289</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1494441835211049</v>
+        <v>0.1494441835212648</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1254137949896332</v>
+        <v>0.1254137949897967</v>
       </c>
       <c r="M22">
-        <v>0.6777261491884374</v>
+        <v>0.6777261491884161</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.453270145959436</v>
+        <v>4.453270145959266</v>
       </c>
       <c r="C23">
-        <v>0.7400500730273336</v>
+        <v>0.7400500730282999</v>
       </c>
       <c r="D23">
-        <v>0.2802896303308273</v>
+        <v>0.2802896303310689</v>
       </c>
       <c r="E23">
-        <v>0.02806587012242989</v>
+        <v>0.02806587012242634</v>
       </c>
       <c r="F23">
         <v>11.28285715330406</v>
       </c>
       <c r="G23">
-        <v>0.0008042472672419705</v>
+        <v>0.0008042472674683144</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1467675888071902</v>
+        <v>0.1467675888073181</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1220779585862033</v>
+        <v>0.1220779585865728</v>
       </c>
       <c r="M23">
-        <v>0.6515673846051158</v>
+        <v>0.6515673846051229</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.779017791999536</v>
+        <v>3.779017791999649</v>
       </c>
       <c r="C24">
-        <v>0.6123632761154738</v>
+        <v>0.6123632761155307</v>
       </c>
       <c r="D24">
-        <v>0.2366174292789793</v>
+        <v>0.2366174292783683</v>
       </c>
       <c r="E24">
-        <v>0.02572442819490739</v>
+        <v>0.02572442819494469</v>
       </c>
       <c r="F24">
-        <v>9.865515415675389</v>
+        <v>9.865515415675162</v>
       </c>
       <c r="G24">
-        <v>0.0008246572274131771</v>
+        <v>0.0008246572273139397</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1370579808226147</v>
+        <v>0.1370579808225827</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1103189830090017</v>
+        <v>0.1103189830090798</v>
       </c>
       <c r="M24">
-        <v>0.5571970363519654</v>
+        <v>0.5571970363519299</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.104827217617071</v>
+        <v>3.104827217617299</v>
       </c>
       <c r="C25">
-        <v>0.4841257601407847</v>
+        <v>0.4841257601407278</v>
       </c>
       <c r="D25">
-        <v>0.1921643651130296</v>
+        <v>0.192164365113257</v>
       </c>
       <c r="E25">
-        <v>0.02335082552709</v>
+        <v>0.02335082552711309</v>
       </c>
       <c r="F25">
-        <v>8.429242071496503</v>
+        <v>8.429242071496475</v>
       </c>
       <c r="G25">
-        <v>0.0008468081886069584</v>
+        <v>0.0008468081886022946</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1272557943396677</v>
+        <v>0.1272557943396322</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.09917070271076511</v>
+        <v>0.09917070271063722</v>
       </c>
       <c r="M25">
-        <v>0.4633134379797141</v>
+        <v>0.4633134379796857</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.642002945599359</v>
+        <v>2.570015456672195</v>
       </c>
       <c r="C2">
-        <v>0.3953963257254998</v>
+        <v>0.5119186361983736</v>
       </c>
       <c r="D2">
-        <v>0.1610027406357517</v>
+        <v>0.02222051245403733</v>
       </c>
       <c r="E2">
-        <v>0.02168518733024349</v>
+        <v>0.03574535815724789</v>
       </c>
       <c r="F2">
-        <v>7.428701148049839</v>
+        <v>1.167415569041367</v>
       </c>
       <c r="G2">
-        <v>0.0008634352501659362</v>
+        <v>0.9620880264501039</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0118054579072413</v>
       </c>
       <c r="J2">
-        <v>0.1204192478577646</v>
+        <v>0.6678987224636046</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6257050133360877</v>
       </c>
       <c r="L2">
-        <v>0.09201206591621514</v>
+        <v>0.06828591139605145</v>
       </c>
       <c r="M2">
-        <v>0.3992521550489982</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2038359913008989</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4591268338372743</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.344451557896889</v>
+        <v>2.239027711801498</v>
       </c>
       <c r="C3">
-        <v>0.3378322454807972</v>
+        <v>0.4471102612961317</v>
       </c>
       <c r="D3">
-        <v>0.1405749848142079</v>
+        <v>0.02133593510366083</v>
       </c>
       <c r="E3">
-        <v>0.02058848102578636</v>
+        <v>0.03617487560841059</v>
       </c>
       <c r="F3">
-        <v>6.777027380078835</v>
+        <v>1.127700341582518</v>
       </c>
       <c r="G3">
-        <v>0.0008749829601937033</v>
+        <v>0.9198222136556069</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01653238734037465</v>
       </c>
       <c r="J3">
-        <v>0.1159450659322978</v>
+        <v>0.6556267101419309</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6250787313233417</v>
       </c>
       <c r="L3">
-        <v>0.08770724203520786</v>
+        <v>0.06889744606337089</v>
       </c>
       <c r="M3">
-        <v>0.358301158253056</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.186826685212786</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.402547470259961</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.168358095765598</v>
+        <v>2.036167185621252</v>
       </c>
       <c r="C4">
-        <v>0.3034841929633387</v>
+        <v>0.4076945978425499</v>
       </c>
       <c r="D4">
-        <v>0.128292541010282</v>
+        <v>0.02081766542212549</v>
       </c>
       <c r="E4">
-        <v>0.01992574043483319</v>
+        <v>0.03645163949671171</v>
       </c>
       <c r="F4">
-        <v>6.387363465118199</v>
+        <v>1.104646094327585</v>
       </c>
       <c r="G4">
-        <v>0.0008822339505527696</v>
+        <v>0.8950415619597578</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01998378282492652</v>
       </c>
       <c r="J4">
-        <v>0.1132545472736375</v>
+        <v>0.6488025976357648</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6253256186261567</v>
       </c>
       <c r="L4">
-        <v>0.08530376696002406</v>
+        <v>0.06929144754702143</v>
       </c>
       <c r="M4">
-        <v>0.3341796185333052</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1766710223418713</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3679912689412106</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.098082937703282</v>
+        <v>1.953487887812003</v>
       </c>
       <c r="C5">
-        <v>0.2897022208491933</v>
+        <v>0.3923421243736414</v>
       </c>
       <c r="D5">
-        <v>0.1233421613446666</v>
+        <v>0.02064323585518935</v>
       </c>
       <c r="E5">
-        <v>0.01965766694927229</v>
+        <v>0.03656373331830787</v>
       </c>
       <c r="F5">
-        <v>6.230866189540933</v>
+        <v>1.094263959447815</v>
       </c>
       <c r="G5">
-        <v>0.0008852322068120586</v>
+        <v>0.8838628221061668</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02161783467031375</v>
       </c>
       <c r="J5">
-        <v>0.1121695110826231</v>
+        <v>0.6454975640370009</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6247011909729707</v>
       </c>
       <c r="L5">
-        <v>0.08438067759311707</v>
+        <v>0.06946166214101801</v>
       </c>
       <c r="M5">
-        <v>0.3245816795491834</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1727694912319464</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3540445557483949</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.086498637927036</v>
+        <v>1.93966797394188</v>
       </c>
       <c r="C6">
-        <v>0.2874257630888906</v>
+        <v>0.3905659797415524</v>
       </c>
       <c r="D6">
-        <v>0.1225231739271919</v>
+        <v>0.0206523432825243</v>
       </c>
       <c r="E6">
-        <v>0.01961325588850293</v>
+        <v>0.03657773915201057</v>
       </c>
       <c r="F6">
-        <v>6.205009222740586</v>
+        <v>1.090965811928548</v>
       </c>
       <c r="G6">
-        <v>0.0008857327703943374</v>
+        <v>0.8803666507133983</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0220213750270668</v>
       </c>
       <c r="J6">
-        <v>0.1119899499763228</v>
+        <v>0.6441105343850921</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6235367826138649</v>
       </c>
       <c r="L6">
-        <v>0.08423069536006977</v>
+        <v>0.06949663353434143</v>
       </c>
       <c r="M6">
-        <v>0.3230012565117306</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1723319218658119</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3518470618441114</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.167404550244555</v>
+        <v>2.034788501181083</v>
       </c>
       <c r="C7">
-        <v>0.3032974975074296</v>
+        <v>0.409591436397136</v>
       </c>
       <c r="D7">
-        <v>0.1282255698158821</v>
+        <v>0.0209180005973586</v>
       </c>
       <c r="E7">
-        <v>0.01992211784985454</v>
+        <v>0.03644026257586164</v>
       </c>
       <c r="F7">
-        <v>6.385244022914605</v>
+        <v>1.100154639100069</v>
       </c>
       <c r="G7">
-        <v>0.0008822742064435349</v>
+        <v>0.8903645758565943</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0203254062704934</v>
       </c>
       <c r="J7">
-        <v>0.1132398716374929</v>
+        <v>0.6464417886362384</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6223972812650906</v>
       </c>
       <c r="L7">
-        <v>0.08529109460371842</v>
+        <v>0.06931247682303088</v>
       </c>
       <c r="M7">
-        <v>0.3340492704868225</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1771813942072669</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3681195704926381</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.537924372733073</v>
+        <v>2.455421901457612</v>
       </c>
       <c r="C8">
-        <v>0.3753188234743732</v>
+        <v>0.4923001739808512</v>
       </c>
       <c r="D8">
-        <v>0.1538984856963026</v>
+        <v>0.02204550467378752</v>
       </c>
       <c r="E8">
-        <v>0.02130440171011561</v>
+        <v>0.03587473867931701</v>
       </c>
       <c r="F8">
-        <v>7.201617452917532</v>
+        <v>1.147683458052569</v>
       </c>
       <c r="G8">
-        <v>0.0008673854715218051</v>
+        <v>0.9412706588747994</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01369217770733311</v>
       </c>
       <c r="J8">
-        <v>0.1188629679834499</v>
+        <v>0.6604590712368292</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6215088131595508</v>
       </c>
       <c r="L8">
-        <v>0.0904755109324995</v>
+        <v>0.0685233671599601</v>
       </c>
       <c r="M8">
-        <v>0.3849039080003109</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1986554935162914</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.439993438654561</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.325992412965434</v>
+        <v>3.285089209446824</v>
       </c>
       <c r="C9">
-        <v>0.5262918606976541</v>
+        <v>0.6542380660826836</v>
       </c>
       <c r="D9">
-        <v>0.2068519988054334</v>
+        <v>0.02428193257916789</v>
       </c>
       <c r="E9">
-        <v>0.02413476369567658</v>
+        <v>0.03489166971129565</v>
       </c>
       <c r="F9">
-        <v>8.902846214236746</v>
+        <v>1.260139292316552</v>
       </c>
       <c r="G9">
-        <v>0.0008393093415177961</v>
+        <v>1.059440862828652</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004876577683893935</v>
       </c>
       <c r="J9">
-        <v>0.1304868265915005</v>
+        <v>0.6981430271268607</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6303373914280925</v>
       </c>
       <c r="L9">
-        <v>0.1027468014662674</v>
+        <v>0.06708285038553363</v>
       </c>
       <c r="M9">
-        <v>0.4940478804599024</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2422263075819302</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5821199787076381</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.957190659943478</v>
+        <v>3.899209055775088</v>
       </c>
       <c r="C10">
-        <v>0.6461383745639182</v>
+        <v>0.7773265231128619</v>
       </c>
       <c r="D10">
-        <v>0.2482235951780183</v>
+        <v>0.02611876664256485</v>
       </c>
       <c r="E10">
-        <v>0.02634530481015585</v>
+        <v>0.03423016551711922</v>
       </c>
       <c r="F10">
-        <v>10.24170995456845</v>
+        <v>1.348984161619285</v>
       </c>
       <c r="G10">
-        <v>0.0008191176449315869</v>
+        <v>1.151694571026042</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001833204014162426</v>
       </c>
       <c r="J10">
-        <v>0.1396298883073435</v>
+        <v>0.7290336229942653</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.639235255540342</v>
       </c>
       <c r="L10">
-        <v>0.1133750676650322</v>
+        <v>0.0661383848428283</v>
       </c>
       <c r="M10">
-        <v>0.5820944929433125</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2762999421653092</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6881968831470928</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.259681587268972</v>
+        <v>4.179548924540029</v>
       </c>
       <c r="C11">
-        <v>0.7034182732951706</v>
+        <v>0.837785304295636</v>
       </c>
       <c r="D11">
-        <v>0.2678167474787045</v>
+        <v>0.02715709687058876</v>
       </c>
       <c r="E11">
-        <v>0.02739556639175511</v>
+        <v>0.03392786870784914</v>
       </c>
       <c r="F11">
-        <v>10.87760648273246</v>
+        <v>1.384466869875027</v>
       </c>
       <c r="G11">
-        <v>0.0008099601127553188</v>
+        <v>1.188278916195642</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001680966451767851</v>
       </c>
       <c r="J11">
-        <v>0.1439853980906705</v>
+        <v>0.7404416695702309</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6395818653784673</v>
       </c>
       <c r="L11">
-        <v>0.1186501392905228</v>
+        <v>0.06579079462117754</v>
       </c>
       <c r="M11">
-        <v>0.6244317388913387</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2931850861322687</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7373929166821327</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.376841091719143</v>
+        <v>4.28627237353902</v>
       </c>
       <c r="C12">
-        <v>0.7255894891856087</v>
+        <v>0.8589214899559465</v>
       </c>
       <c r="D12">
-        <v>0.2753711463238773</v>
+        <v>0.02746665639239865</v>
       </c>
       <c r="E12">
-        <v>0.02780136950035583</v>
+        <v>0.03382451052198465</v>
       </c>
       <c r="F12">
-        <v>11.12301664071731</v>
+        <v>1.402010018088504</v>
       </c>
       <c r="G12">
-        <v>0.0008064897259537058</v>
+        <v>1.206385247064688</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001530775620224745</v>
       </c>
       <c r="J12">
-        <v>0.1456695651046687</v>
+        <v>0.7469259505399748</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6423524867692691</v>
       </c>
       <c r="L12">
-        <v>0.1207200907395745</v>
+        <v>0.06563286497890708</v>
       </c>
       <c r="M12">
-        <v>0.6408506247091168</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2991556190147122</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7558237721535122</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.351485267806027</v>
+        <v>4.263336342715263</v>
       </c>
       <c r="C13">
-        <v>0.7207916508174321</v>
+        <v>0.8539782710305417</v>
       </c>
       <c r="D13">
-        <v>0.2737377489666102</v>
+        <v>0.0273817713268123</v>
       </c>
       <c r="E13">
-        <v>0.02771358255942413</v>
+        <v>0.03384842390408205</v>
       </c>
       <c r="F13">
-        <v>11.06994479769054</v>
+        <v>1.398973598544956</v>
       </c>
       <c r="G13">
-        <v>0.0008072373703982909</v>
+        <v>1.203261457395541</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001511064614893698</v>
       </c>
       <c r="J13">
-        <v>0.1453051824092064</v>
+        <v>0.7459217776410298</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.6422478181537841</v>
       </c>
       <c r="L13">
-        <v>0.1202709074198793</v>
+        <v>0.06566043280428602</v>
       </c>
       <c r="M13">
-        <v>0.6372962865798328</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2977668114386915</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7517967532047223</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.269265430504504</v>
+        <v>4.188349402220581</v>
       </c>
       <c r="C14">
-        <v>0.7052321477364387</v>
+        <v>0.8393579694751452</v>
       </c>
       <c r="D14">
-        <v>0.2684353980960026</v>
+        <v>0.02717481670152821</v>
       </c>
       <c r="E14">
-        <v>0.02742877916432374</v>
+        <v>0.03392006902391775</v>
       </c>
       <c r="F14">
-        <v>10.89769937405407</v>
+        <v>1.386224839308156</v>
       </c>
       <c r="G14">
-        <v>0.0008096746963601542</v>
+        <v>1.19009760929255</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001645945373096147</v>
       </c>
       <c r="J14">
-        <v>0.1441232153694685</v>
+        <v>0.7411415971190678</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.6400186434420334</v>
       </c>
       <c r="L14">
-        <v>0.1188189266104516</v>
+        <v>0.06577507917405612</v>
       </c>
       <c r="M14">
-        <v>0.6257744101566587</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2936324795787755</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.7388846729820884</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.219256900105904</v>
+        <v>4.14233475309743</v>
       </c>
       <c r="C15">
-        <v>0.6957668271893738</v>
+        <v>0.8311783069684111</v>
       </c>
       <c r="D15">
-        <v>0.2652058975239413</v>
+        <v>0.02708420560114533</v>
       </c>
       <c r="E15">
-        <v>0.02725543769555827</v>
+        <v>0.03396075931632303</v>
       </c>
       <c r="F15">
-        <v>10.79281889217015</v>
+        <v>1.376970795519597</v>
       </c>
       <c r="G15">
-        <v>0.0008111670710613217</v>
+        <v>1.180522212457703</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001841749468883158</v>
       </c>
       <c r="J15">
-        <v>0.1434039786487382</v>
+        <v>0.7374488216042323</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6376915025344374</v>
       </c>
       <c r="L15">
-        <v>0.1179392720661596</v>
+        <v>0.0658579965558701</v>
       </c>
       <c r="M15">
-        <v>0.6187691902280363</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2913058326127214</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.7310922938705602</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.937764163496638</v>
+        <v>3.87993763947469</v>
       </c>
       <c r="C16">
-        <v>0.6424573592802858</v>
+        <v>0.7797434041438009</v>
       </c>
       <c r="D16">
-        <v>0.2469606299489584</v>
+        <v>0.02634939899130373</v>
       </c>
       <c r="E16">
-        <v>0.02627770212007974</v>
+        <v>0.03422030441701263</v>
       </c>
       <c r="F16">
-        <v>10.20075402050284</v>
+        <v>1.334138545875476</v>
       </c>
       <c r="G16">
-        <v>0.0008197161290792113</v>
+        <v>1.136227991882222</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002630798973191517</v>
       </c>
       <c r="J16">
-        <v>0.1393497335656981</v>
+        <v>0.7216622404061326</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.6309311236155608</v>
       </c>
       <c r="L16">
-        <v>0.1130399292722757</v>
+        <v>0.06626042321605752</v>
       </c>
       <c r="M16">
-        <v>0.5793783688070491</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.276857656789673</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.6858945399421401</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.769276897449231</v>
+        <v>3.719402436688483</v>
       </c>
       <c r="C17">
-        <v>0.6105157592637056</v>
+        <v>0.748394768453494</v>
       </c>
       <c r="D17">
-        <v>0.2359813980504697</v>
+        <v>0.0259066914454138</v>
       </c>
       <c r="E17">
-        <v>0.02569042539375666</v>
+        <v>0.03438339389139788</v>
       </c>
       <c r="F17">
-        <v>9.844911390792078</v>
+        <v>1.308490951409738</v>
       </c>
       <c r="G17">
-        <v>0.000824963440138049</v>
+        <v>1.109652921535684</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003341771063769094</v>
       </c>
       <c r="J17">
-        <v>0.1369172033699222</v>
+        <v>0.7122983198454875</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.6270767482979878</v>
       </c>
       <c r="L17">
-        <v>0.1101530792314307</v>
+        <v>0.06651226247242015</v>
       </c>
       <c r="M17">
-        <v>0.555836788305335</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2681070072827509</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6582812061789269</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.673784868630207</v>
+        <v>3.627503152972679</v>
       </c>
       <c r="C18">
-        <v>0.5923978899706981</v>
+        <v>0.7285119103488285</v>
       </c>
       <c r="D18">
-        <v>0.229737558057451</v>
+        <v>0.02556421970236045</v>
       </c>
       <c r="E18">
-        <v>0.02535672788181387</v>
+        <v>0.03448780699805809</v>
       </c>
       <c r="F18">
-        <v>9.642714881491258</v>
+        <v>1.297756569655135</v>
       </c>
       <c r="G18">
-        <v>0.0008279846239256481</v>
+        <v>1.098535257466693</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003554731027632485</v>
       </c>
       <c r="J18">
-        <v>0.1355360946167181</v>
+        <v>0.7090340876268897</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.6274678131796776</v>
       </c>
       <c r="L18">
-        <v>0.1085334464726486</v>
+        <v>0.06662934018959987</v>
       </c>
       <c r="M18">
-        <v>0.5425072911749851</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2626128799266496</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6421633648856186</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.641685133989199</v>
+        <v>3.59618731407852</v>
       </c>
       <c r="C19">
-        <v>0.5863048253668808</v>
+        <v>0.7232735558960144</v>
       </c>
       <c r="D19">
-        <v>0.2276350572610681</v>
+        <v>0.02551865952086985</v>
       </c>
       <c r="E19">
-        <v>0.02524440006358031</v>
+        <v>0.03451630557267427</v>
       </c>
       <c r="F19">
-        <v>9.574658797273884</v>
+        <v>1.291229831182065</v>
       </c>
       <c r="G19">
-        <v>0.0008290082562072261</v>
+        <v>1.091751554140785</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003849642540905585</v>
       </c>
       <c r="J19">
-        <v>0.1350713868070841</v>
+        <v>0.7063981089217037</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6256847533933723</v>
       </c>
       <c r="L19">
-        <v>0.1079918233560733</v>
+        <v>0.06669208179894071</v>
       </c>
       <c r="M19">
-        <v>0.5380287788017526</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2611454420387105</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6369241644812647</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.787063251257621</v>
+        <v>3.736499221853819</v>
       </c>
       <c r="C20">
-        <v>0.6138891418478067</v>
+        <v>0.7515734452919958</v>
       </c>
       <c r="D20">
-        <v>0.2371426357414492</v>
+        <v>0.02594639654853736</v>
       </c>
       <c r="E20">
-        <v>0.02575250777941118</v>
+        <v>0.03436660251895785</v>
       </c>
       <c r="F20">
-        <v>9.882530280799841</v>
+        <v>1.311495979995186</v>
       </c>
       <c r="G20">
-        <v>0.0008244045817171005</v>
+        <v>1.112770607235205</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003235967658611116</v>
       </c>
       <c r="J20">
-        <v>0.1371742413746269</v>
+        <v>0.7134408745007761</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6276726133211028</v>
       </c>
       <c r="L20">
-        <v>0.1104561051071329</v>
+        <v>0.06648290111917277</v>
       </c>
       <c r="M20">
-        <v>0.5583206027221976</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2689950610413376</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6611950737846328</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.293340895116955</v>
+        <v>4.210024091447792</v>
       </c>
       <c r="C21">
-        <v>0.7097885659683243</v>
+        <v>0.8458059554351109</v>
       </c>
       <c r="D21">
-        <v>0.2699889561697972</v>
+        <v>0.02733641924339736</v>
       </c>
       <c r="E21">
-        <v>0.02751219829484786</v>
+        <v>0.03388913441993024</v>
       </c>
       <c r="F21">
-        <v>10.94816029351614</v>
+        <v>1.385715298566524</v>
       </c>
       <c r="G21">
-        <v>0.0008089589246481573</v>
+        <v>1.189525602929052</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001874622477505028</v>
       </c>
       <c r="J21">
-        <v>0.144469383861253</v>
+        <v>0.7402978988715461</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6378743647341807</v>
       </c>
       <c r="L21">
-        <v>0.119243363176075</v>
+        <v>0.06577673122481364</v>
       </c>
       <c r="M21">
-        <v>0.629147654275549</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2954043255431458</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7429797942183356</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.639695100557674</v>
+        <v>4.521550541803833</v>
       </c>
       <c r="C22">
-        <v>0.7753161296721203</v>
+        <v>0.9053931645721605</v>
       </c>
       <c r="D22">
-        <v>0.2922564080659953</v>
+        <v>0.0281442973037187</v>
       </c>
       <c r="E22">
-        <v>0.02871044963348179</v>
+        <v>0.03360243428775145</v>
       </c>
       <c r="F22">
-        <v>11.67192887989529</v>
+        <v>1.441798788332306</v>
       </c>
       <c r="G22">
-        <v>0.0007988450254373289</v>
+        <v>1.247406515905169</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001417332525277537</v>
       </c>
       <c r="J22">
-        <v>0.1494441835212648</v>
+        <v>0.7618092885462602</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6491026633486996</v>
       </c>
       <c r="L22">
-        <v>0.1254137949897967</v>
+        <v>0.06528669349252603</v>
       </c>
       <c r="M22">
-        <v>0.6777261491884161</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3123456532187987</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7964546872751868</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.453270145959266</v>
+        <v>4.355536899073911</v>
       </c>
       <c r="C23">
-        <v>0.7400500730282999</v>
+        <v>0.8709158582190639</v>
       </c>
       <c r="D23">
-        <v>0.2802896303310689</v>
+        <v>0.02758902155746057</v>
       </c>
       <c r="E23">
-        <v>0.02806587012242634</v>
+        <v>0.03376604901065827</v>
       </c>
       <c r="F23">
-        <v>11.28285715330406</v>
+        <v>1.416775712264496</v>
       </c>
       <c r="G23">
-        <v>0.0008042472674683144</v>
+        <v>1.221656625288972</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001278127446012078</v>
       </c>
       <c r="J23">
-        <v>0.1467675888073181</v>
+        <v>0.7529270562696695</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6463856079795534</v>
       </c>
       <c r="L23">
-        <v>0.1220779585865728</v>
+        <v>0.06550389611284579</v>
       </c>
       <c r="M23">
-        <v>0.6515673846051229</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3025919185825785</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7675067197773942</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.779017791999649</v>
+        <v>3.729390023250403</v>
       </c>
       <c r="C24">
-        <v>0.6123632761155307</v>
+        <v>0.7460697699881109</v>
       </c>
       <c r="D24">
-        <v>0.2366174292783683</v>
+        <v>0.02573705121809411</v>
       </c>
       <c r="E24">
-        <v>0.02572442819494469</v>
+        <v>0.03439356689758322</v>
       </c>
       <c r="F24">
-        <v>9.865515415675162</v>
+        <v>1.318182851830414</v>
       </c>
       <c r="G24">
-        <v>0.0008246572273139397</v>
+        <v>1.119752665140652</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002743154356407373</v>
       </c>
       <c r="J24">
-        <v>0.1370579808225827</v>
+        <v>0.7171803864899431</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6327144771509481</v>
       </c>
       <c r="L24">
-        <v>0.1103189830090798</v>
+        <v>0.06643351335093328</v>
       </c>
       <c r="M24">
-        <v>0.5571970363519299</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2675345235486759</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6592976470737497</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.104827217617299</v>
+        <v>3.059413096195499</v>
       </c>
       <c r="C25">
-        <v>0.4841257601407278</v>
+        <v>0.613864022545016</v>
       </c>
       <c r="D25">
-        <v>0.192164365113257</v>
+        <v>0.02383809122085268</v>
       </c>
       <c r="E25">
-        <v>0.02335082552711309</v>
+        <v>0.03512606754755587</v>
       </c>
       <c r="F25">
-        <v>8.429242071496475</v>
+        <v>1.220515037807516</v>
       </c>
       <c r="G25">
-        <v>0.0008468081886022946</v>
+        <v>1.018064004083612</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.007212852095523026</v>
       </c>
       <c r="J25">
-        <v>0.1272557943396322</v>
+        <v>0.6830814050524054</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6221124622326499</v>
       </c>
       <c r="L25">
-        <v>0.09917070271063722</v>
+        <v>0.06750801146675123</v>
       </c>
       <c r="M25">
-        <v>0.4633134379796857</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.231171731416083</v>
       </c>
       <c r="O25">
+        <v>0.5440072270390672</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.570015456672195</v>
+        <v>2.570892980785516</v>
       </c>
       <c r="C2">
-        <v>0.5119186361983736</v>
+        <v>0.5610547080095785</v>
       </c>
       <c r="D2">
-        <v>0.02222051245403733</v>
+        <v>0.02637435410660771</v>
       </c>
       <c r="E2">
-        <v>0.03574535815724789</v>
+        <v>0.03460299783247278</v>
       </c>
       <c r="F2">
-        <v>1.167415569041367</v>
+        <v>1.019470369311584</v>
       </c>
       <c r="G2">
-        <v>0.9620880264501039</v>
+        <v>0.801318288679127</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0118054579072413</v>
+        <v>0.008069529370383854</v>
       </c>
       <c r="J2">
-        <v>0.6678987224636046</v>
+        <v>0.6058069502733616</v>
       </c>
       <c r="K2">
-        <v>0.6257050133360877</v>
+        <v>0.5155888361769527</v>
       </c>
       <c r="L2">
-        <v>0.06828591139605145</v>
+        <v>0.222975033222653</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1659526844264612</v>
       </c>
       <c r="N2">
-        <v>0.2038359913008989</v>
+        <v>0.06547978227053086</v>
       </c>
       <c r="O2">
-        <v>0.4591268338372743</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2237106992265723</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4680105174822558</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.239027711801498</v>
+        <v>2.239626509735047</v>
       </c>
       <c r="C3">
-        <v>0.4471102612961317</v>
+        <v>0.4856752676626002</v>
       </c>
       <c r="D3">
-        <v>0.02133593510366083</v>
+        <v>0.02520736442539473</v>
       </c>
       <c r="E3">
-        <v>0.03617487560841059</v>
+        <v>0.03509955503320128</v>
       </c>
       <c r="F3">
-        <v>1.127700341582518</v>
+        <v>0.9925461685287047</v>
       </c>
       <c r="G3">
-        <v>0.9198222136556069</v>
+        <v>0.7763645444845793</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01653238734037465</v>
+        <v>0.01138956992683227</v>
       </c>
       <c r="J3">
-        <v>0.6556267101419309</v>
+        <v>0.5936810812185769</v>
       </c>
       <c r="K3">
-        <v>0.6250787313233417</v>
+        <v>0.5216880900308993</v>
       </c>
       <c r="L3">
-        <v>0.06889744606337089</v>
+        <v>0.2282281588551598</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1665786001192977</v>
       </c>
       <c r="N3">
-        <v>0.186826685212786</v>
+        <v>0.06557357098263417</v>
       </c>
       <c r="O3">
-        <v>0.402547470259961</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2044060402356749</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4095243873333487</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.036167185621252</v>
+        <v>2.036257795484687</v>
       </c>
       <c r="C4">
-        <v>0.4076945978425499</v>
+        <v>0.4398998994083456</v>
       </c>
       <c r="D4">
-        <v>0.02081766542212549</v>
+        <v>0.02452678694632482</v>
       </c>
       <c r="E4">
-        <v>0.03645163949671171</v>
+        <v>0.03542001663409583</v>
       </c>
       <c r="F4">
-        <v>1.104646094327585</v>
+        <v>0.976956422619196</v>
       </c>
       <c r="G4">
-        <v>0.8950415619597578</v>
+        <v>0.7621187606224851</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01998378282492652</v>
+        <v>0.01384692764019135</v>
       </c>
       <c r="J4">
-        <v>0.6488025976357648</v>
+        <v>0.5864084268272904</v>
       </c>
       <c r="K4">
-        <v>0.6253256186261567</v>
+        <v>0.5258522065793798</v>
       </c>
       <c r="L4">
-        <v>0.06929144754702143</v>
+        <v>0.2314480302371678</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1678296578584106</v>
       </c>
       <c r="N4">
-        <v>0.1766710223418713</v>
+        <v>0.06565810096862279</v>
       </c>
       <c r="O4">
-        <v>0.3679912689412106</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1928783262498328</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3737526236137754</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.953487887812003</v>
+        <v>1.953294288731058</v>
       </c>
       <c r="C5">
-        <v>0.3923421243736414</v>
+        <v>0.4219835057114665</v>
       </c>
       <c r="D5">
-        <v>0.02064323585518935</v>
+        <v>0.0242901455784974</v>
       </c>
       <c r="E5">
-        <v>0.03656373331830787</v>
+        <v>0.0355516097459887</v>
       </c>
       <c r="F5">
-        <v>1.094263959447815</v>
+        <v>0.9697012476803195</v>
       </c>
       <c r="G5">
-        <v>0.8838628221061668</v>
+        <v>0.7554193461193819</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02161783467031375</v>
+        <v>0.01505367044746109</v>
       </c>
       <c r="J5">
-        <v>0.6454975640370009</v>
+        <v>0.5828723710017272</v>
       </c>
       <c r="K5">
-        <v>0.6247011909729707</v>
+        <v>0.5269366628143715</v>
       </c>
       <c r="L5">
-        <v>0.06946166214101801</v>
+        <v>0.2324289593622417</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1683488745499524</v>
       </c>
       <c r="N5">
-        <v>0.1727694912319464</v>
+        <v>0.06571071236946224</v>
       </c>
       <c r="O5">
-        <v>0.3540445557483949</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1884199001299294</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3592935482103243</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.93966797394188</v>
+        <v>1.93942348582226</v>
       </c>
       <c r="C6">
-        <v>0.3905659797415524</v>
+        <v>0.4197770239620979</v>
       </c>
       <c r="D6">
-        <v>0.0206523432825243</v>
+        <v>0.02429050179863879</v>
       </c>
       <c r="E6">
-        <v>0.03657773915201057</v>
+        <v>0.03557017982470945</v>
       </c>
       <c r="F6">
-        <v>1.090965811928548</v>
+        <v>0.9671353331429344</v>
       </c>
       <c r="G6">
-        <v>0.8803666507133983</v>
+        <v>0.7529215174634487</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0220213750270668</v>
+        <v>0.01539679989153075</v>
       </c>
       <c r="J6">
-        <v>0.6441105343850921</v>
+        <v>0.5815394522745692</v>
       </c>
       <c r="K6">
-        <v>0.6235367826138649</v>
+        <v>0.5262535318744561</v>
       </c>
       <c r="L6">
-        <v>0.06949663353434143</v>
+        <v>0.2321906632224078</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1681980088208146</v>
       </c>
       <c r="N6">
-        <v>0.1723319218658119</v>
+        <v>0.06573416867068183</v>
       </c>
       <c r="O6">
-        <v>0.3518470618441114</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1878816773280718</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3570019478807112</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.034788501181083</v>
+        <v>2.034872039231232</v>
       </c>
       <c r="C7">
-        <v>0.409591436397136</v>
+        <v>0.4409846927408125</v>
       </c>
       <c r="D7">
-        <v>0.0209180005973586</v>
+        <v>0.02473614483902509</v>
       </c>
       <c r="E7">
-        <v>0.03644026257586164</v>
+        <v>0.03541204047238911</v>
       </c>
       <c r="F7">
-        <v>1.100154639100069</v>
+        <v>0.9709774803091591</v>
       </c>
       <c r="G7">
-        <v>0.8903645758565943</v>
+        <v>0.7609957752712262</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0203254062704934</v>
+        <v>0.01423014970891501</v>
       </c>
       <c r="J7">
-        <v>0.6464417886362384</v>
+        <v>0.5777544325294599</v>
       </c>
       <c r="K7">
-        <v>0.6223972812650906</v>
+        <v>0.5224417195704625</v>
       </c>
       <c r="L7">
-        <v>0.06931247682303088</v>
+        <v>0.229908775246713</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1668223719603947</v>
       </c>
       <c r="N7">
-        <v>0.1771813942072669</v>
+        <v>0.06569227309620373</v>
       </c>
       <c r="O7">
-        <v>0.3681195704926381</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1933411047631495</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3738410632611817</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.455421901457612</v>
+        <v>2.456242810547224</v>
       </c>
       <c r="C8">
-        <v>0.4923001739808512</v>
+        <v>0.5351832573740865</v>
       </c>
       <c r="D8">
-        <v>0.02204550467378752</v>
+        <v>0.02646323049770061</v>
       </c>
       <c r="E8">
-        <v>0.03587473867931701</v>
+        <v>0.0347585427915556</v>
       </c>
       <c r="F8">
-        <v>1.147683458052569</v>
+        <v>0.9980341154325032</v>
       </c>
       <c r="G8">
-        <v>0.9412706588747994</v>
+        <v>0.7967987970525456</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01369217770733311</v>
+        <v>0.009579594920946732</v>
       </c>
       <c r="J8">
-        <v>0.6604590712368292</v>
+        <v>0.5774317443076455</v>
       </c>
       <c r="K8">
-        <v>0.6215088131595508</v>
+        <v>0.5110814132868065</v>
       </c>
       <c r="L8">
-        <v>0.0685233671599601</v>
+        <v>0.2220231419942209</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1638603401458738</v>
       </c>
       <c r="N8">
-        <v>0.1986554935162914</v>
+        <v>0.06554867341935022</v>
       </c>
       <c r="O8">
-        <v>0.439993438654561</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2176401940808148</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4481591368057991</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.285089209446824</v>
+        <v>3.284337932428627</v>
       </c>
       <c r="C9">
-        <v>0.6542380660826836</v>
+        <v>0.7234508289162704</v>
       </c>
       <c r="D9">
-        <v>0.02428193257916789</v>
+        <v>0.02956627107578313</v>
       </c>
       <c r="E9">
-        <v>0.03489166971129565</v>
+        <v>0.03361745066584948</v>
       </c>
       <c r="F9">
-        <v>1.260139292316552</v>
+        <v>1.073618690913634</v>
       </c>
       <c r="G9">
-        <v>1.059440862828652</v>
+        <v>0.8730465400086018</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.004876577683893935</v>
+        <v>0.003424608816931851</v>
       </c>
       <c r="J9">
-        <v>0.6981430271268607</v>
+        <v>0.6052959337421555</v>
       </c>
       <c r="K9">
-        <v>0.6303373914280925</v>
+        <v>0.5003604097638323</v>
       </c>
       <c r="L9">
-        <v>0.06708285038553363</v>
+        <v>0.210009183829925</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1676408707631758</v>
       </c>
       <c r="N9">
-        <v>0.2422263075819302</v>
+        <v>0.06542723820466456</v>
       </c>
       <c r="O9">
-        <v>0.5821199787076381</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.267144359917836</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5947412373945653</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.899209055775088</v>
+        <v>3.894767701696708</v>
       </c>
       <c r="C10">
-        <v>0.7773265231128619</v>
+        <v>0.8617722945759567</v>
       </c>
       <c r="D10">
-        <v>0.02611876664256485</v>
+        <v>0.03275932837405904</v>
       </c>
       <c r="E10">
-        <v>0.03423016551711922</v>
+        <v>0.03285280557379455</v>
       </c>
       <c r="F10">
-        <v>1.348984161619285</v>
+        <v>1.121153148616628</v>
       </c>
       <c r="G10">
-        <v>1.151694571026042</v>
+        <v>0.9511990904933612</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001833204014162426</v>
+        <v>0.001569479502359528</v>
       </c>
       <c r="J10">
-        <v>0.7290336229942653</v>
+        <v>0.5897517693458241</v>
       </c>
       <c r="K10">
-        <v>0.639235255540342</v>
+        <v>0.4881888908656933</v>
       </c>
       <c r="L10">
-        <v>0.0661383848428283</v>
+        <v>0.1987914901859256</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1722997141870266</v>
       </c>
       <c r="N10">
-        <v>0.2762999421653092</v>
+        <v>0.06549738501295366</v>
       </c>
       <c r="O10">
-        <v>0.6881968831470928</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3056085027409523</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7036384925732193</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.179548924540029</v>
+        <v>4.172464919141873</v>
       </c>
       <c r="C11">
-        <v>0.837785304295636</v>
+        <v>0.9208573171712544</v>
       </c>
       <c r="D11">
-        <v>0.02715709687058876</v>
+        <v>0.0356733284687607</v>
       </c>
       <c r="E11">
-        <v>0.03392786870784914</v>
+        <v>0.03251687305246964</v>
       </c>
       <c r="F11">
-        <v>1.384466869875027</v>
+        <v>1.117156662824286</v>
       </c>
       <c r="G11">
-        <v>1.188278916195642</v>
+        <v>1.013180826248472</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001680966451767851</v>
+        <v>0.001833164829742273</v>
       </c>
       <c r="J11">
-        <v>0.7404416695702309</v>
+        <v>0.5216930969205436</v>
       </c>
       <c r="K11">
-        <v>0.6395818653784673</v>
+        <v>0.4698801873000278</v>
       </c>
       <c r="L11">
-        <v>0.06579079462117754</v>
+        <v>0.1892137215101499</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1698887626573011</v>
       </c>
       <c r="N11">
-        <v>0.2931850861322687</v>
+        <v>0.06565448943194241</v>
       </c>
       <c r="O11">
-        <v>0.7373929166821327</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3242374619555477</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7537864108418475</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.28627237353902</v>
+        <v>4.278006050040574</v>
       </c>
       <c r="C12">
-        <v>0.8589214899559465</v>
+        <v>0.9403990051373796</v>
       </c>
       <c r="D12">
-        <v>0.02746665639239865</v>
+        <v>0.03686612991765159</v>
       </c>
       <c r="E12">
-        <v>0.03382451052198465</v>
+        <v>0.03240231186495457</v>
       </c>
       <c r="F12">
-        <v>1.402010018088504</v>
+        <v>1.116321337635313</v>
       </c>
       <c r="G12">
-        <v>1.206385247064688</v>
+        <v>1.044602250962896</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.001530775620224745</v>
+        <v>0.001760315703144499</v>
       </c>
       <c r="J12">
-        <v>0.7469259505399748</v>
+        <v>0.4923112766957018</v>
       </c>
       <c r="K12">
-        <v>0.6423524867692691</v>
+        <v>0.4637226521485118</v>
       </c>
       <c r="L12">
-        <v>0.06563286497890708</v>
+        <v>0.1859064723292221</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1693250070632217</v>
       </c>
       <c r="N12">
-        <v>0.2991556190147122</v>
+        <v>0.06566729650381475</v>
       </c>
       <c r="O12">
-        <v>0.7558237721535122</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3308520398079935</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7725501336335014</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.263336342715263</v>
+        <v>4.255326839416114</v>
       </c>
       <c r="C13">
-        <v>0.8539782710305417</v>
+        <v>0.93585087238759</v>
       </c>
       <c r="D13">
-        <v>0.0273817713268123</v>
+        <v>0.03657963783114937</v>
       </c>
       <c r="E13">
-        <v>0.03384842390408205</v>
+        <v>0.03242789023633769</v>
       </c>
       <c r="F13">
-        <v>1.398973598544956</v>
+        <v>1.117222449394234</v>
       </c>
       <c r="G13">
-        <v>1.203261457395541</v>
+        <v>1.038291936335014</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001511064614893698</v>
+        <v>0.001716792415978219</v>
       </c>
       <c r="J13">
-        <v>0.7459217776410298</v>
+        <v>0.4990943109471431</v>
       </c>
       <c r="K13">
-        <v>0.6422478181537841</v>
+        <v>0.465459632072367</v>
       </c>
       <c r="L13">
-        <v>0.06566043280428602</v>
+        <v>0.186756151808158</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1696140994764477</v>
       </c>
       <c r="N13">
-        <v>0.2977668114386915</v>
+        <v>0.06565277113926804</v>
       </c>
       <c r="O13">
-        <v>0.7517967532047223</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3293295529829265</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7684572372991951</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.188349402220581</v>
+        <v>4.181169291737376</v>
       </c>
       <c r="C14">
-        <v>0.8393579694751452</v>
+        <v>0.9223216384773991</v>
       </c>
       <c r="D14">
-        <v>0.02717481670152821</v>
+        <v>0.03575880098986062</v>
       </c>
       <c r="E14">
-        <v>0.03392006902391775</v>
+        <v>0.03250782326368373</v>
       </c>
       <c r="F14">
-        <v>1.386224839308156</v>
+        <v>1.117398380485298</v>
       </c>
       <c r="G14">
-        <v>1.19009760929255</v>
+        <v>1.015953686171827</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001645945373096147</v>
+        <v>0.001801481425170337</v>
       </c>
       <c r="J14">
-        <v>0.7411415971190678</v>
+        <v>0.5194825608426328</v>
       </c>
       <c r="K14">
-        <v>0.6400186434420334</v>
+        <v>0.4695507346227998</v>
       </c>
       <c r="L14">
-        <v>0.06577507917405612</v>
+        <v>0.1890013174790681</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1699141400497091</v>
       </c>
       <c r="N14">
-        <v>0.2936324795787755</v>
+        <v>0.06565058511159982</v>
       </c>
       <c r="O14">
-        <v>0.7388846729820884</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.3247400060090797</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.7553080715901004</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.14233475309743</v>
+        <v>4.135650976906902</v>
       </c>
       <c r="C15">
-        <v>0.8311783069684111</v>
+        <v>0.9146651529133294</v>
       </c>
       <c r="D15">
-        <v>0.02708420560114533</v>
+        <v>0.03532147388506957</v>
       </c>
       <c r="E15">
-        <v>0.03396075931632303</v>
+        <v>0.03255533279780681</v>
       </c>
       <c r="F15">
-        <v>1.376970795519597</v>
+        <v>1.115970782484027</v>
       </c>
       <c r="G15">
-        <v>1.180522212457703</v>
+        <v>1.001584668477548</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001841749468883158</v>
+        <v>0.001979457190882883</v>
       </c>
       <c r="J15">
-        <v>0.7374488216042323</v>
+        <v>0.5308080499844721</v>
       </c>
       <c r="K15">
-        <v>0.6376915025344374</v>
+        <v>0.4711896111961096</v>
       </c>
       <c r="L15">
-        <v>0.0658579965558701</v>
+        <v>0.1900838232553497</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1697500881573575</v>
       </c>
       <c r="N15">
-        <v>0.2913058326127214</v>
+        <v>0.06567234134706723</v>
       </c>
       <c r="O15">
-        <v>0.7310922938705602</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.3221232314402727</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.7473570348061287</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.87993763947469</v>
+        <v>3.87572076986072</v>
       </c>
       <c r="C16">
-        <v>0.7797434041438009</v>
+        <v>0.8641352473242705</v>
       </c>
       <c r="D16">
-        <v>0.02634939899130373</v>
+        <v>0.03292000969532793</v>
       </c>
       <c r="E16">
-        <v>0.03422030441701263</v>
+        <v>0.03285531584954693</v>
       </c>
       <c r="F16">
-        <v>1.334138545875476</v>
+        <v>1.110685965306772</v>
       </c>
       <c r="G16">
-        <v>1.136227991882222</v>
+        <v>0.9367958884269854</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.002630798973191517</v>
+        <v>0.002473973623344783</v>
       </c>
       <c r="J16">
-        <v>0.7216622404061326</v>
+        <v>0.5881900569482497</v>
       </c>
       <c r="K16">
-        <v>0.6309311236155608</v>
+        <v>0.4829734767083096</v>
       </c>
       <c r="L16">
-        <v>0.06626042321605752</v>
+        <v>0.1971570380010483</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1699111197653984</v>
       </c>
       <c r="N16">
-        <v>0.276857656789673</v>
+        <v>0.0656670128866228</v>
       </c>
       <c r="O16">
-        <v>0.6858945399421401</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.3059913042169597</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7012064181735198</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.719402436688483</v>
+        <v>3.71643351533038</v>
       </c>
       <c r="C17">
-        <v>0.748394768453494</v>
+        <v>0.8315226022239415</v>
       </c>
       <c r="D17">
-        <v>0.0259066914454138</v>
+        <v>0.03173930004096093</v>
       </c>
       <c r="E17">
-        <v>0.03438339389139788</v>
+        <v>0.03304713784549235</v>
       </c>
       <c r="F17">
-        <v>1.308490951409738</v>
+        <v>1.10327644300601</v>
       </c>
       <c r="G17">
-        <v>1.109652921535684</v>
+        <v>0.9045828276054806</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.003341771063769094</v>
+        <v>0.002943008293362581</v>
       </c>
       <c r="J17">
-        <v>0.7122983198454875</v>
+        <v>0.612133109915689</v>
       </c>
       <c r="K17">
-        <v>0.6270767482979878</v>
+        <v>0.4882774673251546</v>
       </c>
       <c r="L17">
-        <v>0.06651226247242015</v>
+        <v>0.2008450778431801</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1693670586283034</v>
       </c>
       <c r="N17">
-        <v>0.2681070072827509</v>
+        <v>0.06567088225182793</v>
       </c>
       <c r="O17">
-        <v>0.6582812061789269</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2961562631773091</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6729345988421187</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.627503152972679</v>
+        <v>3.625142024863578</v>
       </c>
       <c r="C18">
-        <v>0.7285119103488285</v>
+        <v>0.8102703583678021</v>
       </c>
       <c r="D18">
-        <v>0.02556421970236045</v>
+        <v>0.03106022551728671</v>
       </c>
       <c r="E18">
-        <v>0.03448780699805809</v>
+        <v>0.03316541653379196</v>
       </c>
       <c r="F18">
-        <v>1.297756569655135</v>
+        <v>1.100710646677513</v>
       </c>
       <c r="G18">
-        <v>1.098535257466693</v>
+        <v>0.8918673100604906</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.003554731027632485</v>
+        <v>0.002948706187400951</v>
       </c>
       <c r="J18">
-        <v>0.7090340876268897</v>
+        <v>0.6230406221274905</v>
       </c>
       <c r="K18">
-        <v>0.6274678131796776</v>
+        <v>0.4925565774729677</v>
       </c>
       <c r="L18">
-        <v>0.06662934018959987</v>
+        <v>0.2034153514517349</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1695835959241272</v>
       </c>
       <c r="N18">
-        <v>0.2626128799266496</v>
+        <v>0.06562176953551102</v>
       </c>
       <c r="O18">
-        <v>0.6421633648856186</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.290039161132043</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6564321415232541</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.59618731407852</v>
+        <v>3.594032465539215</v>
       </c>
       <c r="C19">
-        <v>0.7232735558960144</v>
+        <v>0.8044661658877601</v>
       </c>
       <c r="D19">
-        <v>0.02551865952086985</v>
+        <v>0.03092126636128967</v>
       </c>
       <c r="E19">
-        <v>0.03451630557267427</v>
+        <v>0.03320108786350895</v>
       </c>
       <c r="F19">
-        <v>1.291229831182065</v>
+        <v>1.09714409414849</v>
       </c>
       <c r="G19">
-        <v>1.091751554140785</v>
+        <v>0.8854527141876503</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.003849642540905585</v>
+        <v>0.003207128384740798</v>
       </c>
       <c r="J19">
-        <v>0.7063981089217037</v>
+        <v>0.6246498841955059</v>
       </c>
       <c r="K19">
-        <v>0.6256847533933723</v>
+        <v>0.4924046480027187</v>
       </c>
       <c r="L19">
-        <v>0.06669208179894071</v>
+        <v>0.2037042384171031</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1690453989332426</v>
       </c>
       <c r="N19">
-        <v>0.2611454420387105</v>
+        <v>0.06564620691728784</v>
       </c>
       <c r="O19">
-        <v>0.6369241644812647</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2883447651741733</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6510442294645316</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.736499221853819</v>
+        <v>3.733405367200419</v>
       </c>
       <c r="C20">
-        <v>0.7515734452919958</v>
+        <v>0.8349022554240548</v>
       </c>
       <c r="D20">
-        <v>0.02594639654853736</v>
+        <v>0.03184700886760794</v>
       </c>
       <c r="E20">
-        <v>0.03436660251895785</v>
+        <v>0.03302697269361032</v>
       </c>
       <c r="F20">
-        <v>1.311495979995186</v>
+        <v>1.104467935174839</v>
       </c>
       <c r="G20">
-        <v>1.112770607235205</v>
+        <v>0.9080018291370635</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.003235967658611116</v>
+        <v>0.002861148389915691</v>
       </c>
       <c r="J20">
-        <v>0.7134408745007761</v>
+        <v>0.6101758791492813</v>
       </c>
       <c r="K20">
-        <v>0.6276726133211028</v>
+        <v>0.4879350019029118</v>
       </c>
       <c r="L20">
-        <v>0.06648290111917277</v>
+        <v>0.2005319508458889</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1695066211778737</v>
       </c>
       <c r="N20">
-        <v>0.2689950610413376</v>
+        <v>0.06566606139793585</v>
       </c>
       <c r="O20">
-        <v>0.6611950737846328</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2971628862005815</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6759226460982504</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.210024091447792</v>
+        <v>4.20251503790405</v>
       </c>
       <c r="C21">
-        <v>0.8458059554351109</v>
+        <v>0.9255169868459348</v>
       </c>
       <c r="D21">
-        <v>0.02733641924339736</v>
+        <v>0.03655252831698874</v>
       </c>
       <c r="E21">
-        <v>0.03388913441993024</v>
+        <v>0.0324808193712432</v>
       </c>
       <c r="F21">
-        <v>1.385715298566524</v>
+        <v>1.106481097032002</v>
       </c>
       <c r="G21">
-        <v>1.189525602929052</v>
+        <v>1.029609306900312</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001874622477505028</v>
+        <v>0.002102236722688389</v>
       </c>
       <c r="J21">
-        <v>0.7402978988715461</v>
+        <v>0.4927962040048328</v>
       </c>
       <c r="K21">
-        <v>0.6378743647341807</v>
+        <v>0.4628525134263271</v>
       </c>
       <c r="L21">
-        <v>0.06577673122481364</v>
+        <v>0.1864624572855256</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1675691469624034</v>
       </c>
       <c r="N21">
-        <v>0.2954043255431458</v>
+        <v>0.06570936766841662</v>
       </c>
       <c r="O21">
-        <v>0.7429797942183356</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3265367312083072</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7593848284782112</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.521550541803833</v>
+        <v>4.510378615651177</v>
       </c>
       <c r="C22">
-        <v>0.9053931645721605</v>
+        <v>0.9813571573321269</v>
       </c>
       <c r="D22">
-        <v>0.0281442973037187</v>
+        <v>0.03985621545668039</v>
       </c>
       <c r="E22">
-        <v>0.03360243428775145</v>
+        <v>0.0321684861454653</v>
       </c>
       <c r="F22">
-        <v>1.441798788332306</v>
+        <v>1.110465519017609</v>
       </c>
       <c r="G22">
-        <v>1.247406515905169</v>
+        <v>1.123536353479167</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.001417332525277537</v>
+        <v>0.001730176409171058</v>
       </c>
       <c r="J22">
-        <v>0.7618092885462602</v>
+        <v>0.4215752070546017</v>
       </c>
       <c r="K22">
-        <v>0.6491026633486996</v>
+        <v>0.4484864336361127</v>
       </c>
       <c r="L22">
-        <v>0.06528669349252603</v>
+        <v>0.1781620279582299</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1674389731645789</v>
       </c>
       <c r="N22">
-        <v>0.3123456532187987</v>
+        <v>0.06570390119123815</v>
       </c>
       <c r="O22">
-        <v>0.7964546872751868</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3453936369413526</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.813826034206933</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.355536899073911</v>
+        <v>4.346437692795973</v>
       </c>
       <c r="C23">
-        <v>0.8709158582190639</v>
+        <v>0.9510729333457846</v>
       </c>
       <c r="D23">
-        <v>0.02758902155746057</v>
+        <v>0.03760126210953629</v>
       </c>
       <c r="E23">
-        <v>0.03376604901065827</v>
+        <v>0.03233644751185827</v>
       </c>
       <c r="F23">
-        <v>1.416775712264496</v>
+        <v>1.117775333139022</v>
       </c>
       <c r="G23">
-        <v>1.221656625288972</v>
+        <v>1.069297384958887</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001278127446012078</v>
+        <v>0.001506875391275031</v>
       </c>
       <c r="J23">
-        <v>0.7529270562696695</v>
+        <v>0.473345900980533</v>
       </c>
       <c r="K23">
-        <v>0.6463856079795534</v>
+        <v>0.4610239761204866</v>
       </c>
       <c r="L23">
-        <v>0.06550389611284579</v>
+        <v>0.1842139981510513</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1695027048965763</v>
       </c>
       <c r="N23">
-        <v>0.3025919185825785</v>
+        <v>0.06562731761492202</v>
       </c>
       <c r="O23">
-        <v>0.7675067197773942</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3347093000351578</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7844505353335265</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.729390023250403</v>
+        <v>3.726309457830496</v>
       </c>
       <c r="C24">
-        <v>0.7460697699881109</v>
+        <v>0.8293009090022281</v>
       </c>
       <c r="D24">
-        <v>0.02573705121809411</v>
+        <v>0.03159112974630673</v>
       </c>
       <c r="E24">
-        <v>0.03439356689758322</v>
+        <v>0.03304885542708158</v>
       </c>
       <c r="F24">
-        <v>1.318182851830414</v>
+        <v>1.110639598889748</v>
       </c>
       <c r="G24">
-        <v>1.119752665140652</v>
+        <v>0.9134072444893349</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.002743154356407373</v>
+        <v>0.002262087203392049</v>
       </c>
       <c r="J24">
-        <v>0.7171803864899431</v>
+        <v>0.6145429468797374</v>
       </c>
       <c r="K24">
-        <v>0.6327144771509481</v>
+        <v>0.4921471165602824</v>
       </c>
       <c r="L24">
-        <v>0.06643351335093328</v>
+        <v>0.2021318725716874</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1710331508047638</v>
       </c>
       <c r="N24">
-        <v>0.2675345235486759</v>
+        <v>0.06555538001140881</v>
       </c>
       <c r="O24">
-        <v>0.6592976470737497</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2956853392454661</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6740314037661435</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.059413096195499</v>
+        <v>3.05952378461518</v>
       </c>
       <c r="C25">
-        <v>0.613864022545016</v>
+        <v>0.6769724586247889</v>
       </c>
       <c r="D25">
-        <v>0.02383809122085268</v>
+        <v>0.02873526815578842</v>
       </c>
       <c r="E25">
-        <v>0.03512606754755587</v>
+        <v>0.03389939276399379</v>
       </c>
       <c r="F25">
-        <v>1.220515037807516</v>
+        <v>1.048593690117173</v>
       </c>
       <c r="G25">
-        <v>1.018064004083612</v>
+        <v>0.8404281260403366</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.007212852095523026</v>
+        <v>0.005235036113577785</v>
       </c>
       <c r="J25">
-        <v>0.6830814050524054</v>
+        <v>0.6031919122640801</v>
       </c>
       <c r="K25">
-        <v>0.6221124622326499</v>
+        <v>0.5002375225980096</v>
       </c>
       <c r="L25">
-        <v>0.06750801146675123</v>
+        <v>0.2122536313254066</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1648817772806801</v>
       </c>
       <c r="N25">
-        <v>0.231171731416083</v>
+        <v>0.06554017329018436</v>
       </c>
       <c r="O25">
-        <v>0.5440072270390672</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2544459302165194</v>
       </c>
       <c r="Q25">
+        <v>0.5554576983990884</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
